--- a/001D/Grupo 1/Fase 2/Evidencias Proyecto/2.2 Product Backlog.xlsx
+++ b/001D/Grupo 1/Fase 2/Evidencias Proyecto/2.2 Product Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TZ203\Desktop\nuevo_capstone\adjuntos\Documentos Fase 2\Plantillas Metodologia Agil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TZ203\Desktop\nuevo_capstone\Capstone\001D\Grupo 1\Fase 2\Evidencias Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56522119-2094-443D-A291-E03BF5566AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E57F17-9A05-4FCF-B04E-05BB0EB48A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="104">
   <si>
     <t>Desarrollo ágil: Pila de Producto (Product Backlog)</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>H20</t>
-  </si>
-  <si>
-    <t>Como un [Rol], necesito [descripción de la funcionalidad], con la finalidad de [Razón o Resultado]</t>
   </si>
   <si>
     <t>Pila de Producto (Product Backlog): Instructivo</t>
@@ -668,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="B4:I20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -826,25 +823,25 @@
         <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -870,25 +867,25 @@
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>103</v>
+      <c r="G6" s="5" t="s">
+        <v>45</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -914,25 +911,25 @@
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>103</v>
+      <c r="G7" s="5" t="s">
+        <v>45</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -958,25 +955,25 @@
         <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1002,25 +999,25 @@
         <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="H9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1046,25 +1043,25 @@
         <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1090,25 +1087,25 @@
         <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1134,25 +1131,25 @@
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1178,25 +1175,25 @@
         <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1222,25 +1219,25 @@
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1266,25 +1263,25 @@
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="H15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1310,25 +1307,25 @@
         <v>22</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1354,25 +1351,25 @@
         <v>23</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1398,25 +1395,25 @@
         <v>24</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1442,25 +1439,25 @@
         <v>25</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="H19" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1486,25 +1483,25 @@
         <v>26</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1619,9 +1616,7 @@
       <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -28976,7 +28971,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup scale="70" orientation="landscape"/>
+  <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29001,7 +28996,7 @@
     <row r="1" spans="1:26" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -29089,10 +29084,10 @@
     <row r="4" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -29124,7 +29119,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -29156,7 +29151,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -29188,7 +29183,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -29220,7 +29215,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -29252,7 +29247,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -29284,7 +29279,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -29316,7 +29311,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -29348,7 +29343,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
